--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H2">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I2">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J2">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>21.96751655770835</v>
+        <v>28.82581151858111</v>
       </c>
       <c r="R2">
-        <v>21.96751655770835</v>
+        <v>259.43230366723</v>
       </c>
       <c r="S2">
-        <v>0.006384876780974807</v>
+        <v>0.007838147078339429</v>
       </c>
       <c r="T2">
-        <v>0.006384876780974807</v>
+        <v>0.007838147078339432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H3">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I3">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J3">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>769.2454376570736</v>
+        <v>780.1081630287879</v>
       </c>
       <c r="R3">
-        <v>769.2454376570736</v>
+        <v>7020.973467259091</v>
       </c>
       <c r="S3">
-        <v>0.2235818200416471</v>
+        <v>0.2121224762359721</v>
       </c>
       <c r="T3">
-        <v>0.2235818200416471</v>
+        <v>0.2121224762359722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H4">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I4">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J4">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>1052.040223033177</v>
+        <v>1064.750062379135</v>
       </c>
       <c r="R4">
-        <v>1052.040223033177</v>
+        <v>9582.750561412211</v>
       </c>
       <c r="S4">
-        <v>0.3057763573342593</v>
+        <v>0.2895206466336298</v>
       </c>
       <c r="T4">
-        <v>0.3057763573342593</v>
+        <v>0.2895206466336299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H5">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I5">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J5">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>768.6634358075157</v>
+        <v>798.9104384967479</v>
       </c>
       <c r="R5">
-        <v>768.6634358075157</v>
+        <v>7190.193946470731</v>
       </c>
       <c r="S5">
-        <v>0.2234126607247091</v>
+        <v>0.2172350816670569</v>
       </c>
       <c r="T5">
-        <v>0.2234126607247091</v>
+        <v>0.2172350816670569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H6">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I6">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J6">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>65.43967680424674</v>
+        <v>74.62284158069779</v>
       </c>
       <c r="R6">
-        <v>65.43967680424674</v>
+        <v>671.6055742262802</v>
       </c>
       <c r="S6">
-        <v>0.01902009596234113</v>
+        <v>0.02029100923441836</v>
       </c>
       <c r="T6">
-        <v>0.01902009596234113</v>
+        <v>0.02029100923441837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H7">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I7">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J7">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>4.28922665444538</v>
+        <v>5.619026349827333</v>
       </c>
       <c r="R7">
-        <v>4.28922665444538</v>
+        <v>50.571237148446</v>
       </c>
       <c r="S7">
-        <v>0.001246667259922779</v>
+        <v>0.001527892976703238</v>
       </c>
       <c r="T7">
-        <v>0.001246667259922779</v>
+        <v>0.001527892976703238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H8">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I8">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J8">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>150.1975895336902</v>
+        <v>152.0667794885354</v>
       </c>
       <c r="R8">
-        <v>150.1975895336902</v>
+        <v>1368.601015396818</v>
       </c>
       <c r="S8">
-        <v>0.04365505310774579</v>
+        <v>0.0413491145805986</v>
       </c>
       <c r="T8">
-        <v>0.04365505310774579</v>
+        <v>0.04134911458059862</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H9">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I9">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J9">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>205.414160236477</v>
+        <v>207.5521326652713</v>
       </c>
       <c r="R9">
-        <v>205.414160236477</v>
+        <v>1867.969193987442</v>
       </c>
       <c r="S9">
-        <v>0.05970379486146796</v>
+        <v>0.05643636923126218</v>
       </c>
       <c r="T9">
-        <v>0.05970379486146796</v>
+        <v>0.05643636923126219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H10">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I10">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J10">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>150.083951843262</v>
+        <v>155.7319141621273</v>
       </c>
       <c r="R10">
-        <v>150.083951843262</v>
+        <v>1401.587227459146</v>
       </c>
       <c r="S10">
-        <v>0.04362202421942552</v>
+        <v>0.04234571669239059</v>
       </c>
       <c r="T10">
-        <v>0.04362202421942552</v>
+        <v>0.04234571669239059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H11">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I11">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J11">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>12.77730258082242</v>
+        <v>14.54625875391734</v>
       </c>
       <c r="R11">
-        <v>12.77730258082242</v>
+        <v>130.916328785256</v>
       </c>
       <c r="S11">
-        <v>0.003713733519101675</v>
+        <v>0.003955334110170393</v>
       </c>
       <c r="T11">
-        <v>0.003713733519101675</v>
+        <v>0.003955334110170394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H12">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I12">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J12">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>0.2689357672286599</v>
+        <v>1.001116717465778</v>
       </c>
       <c r="R12">
-        <v>0.2689357672286599</v>
+        <v>9.010050457191999</v>
       </c>
       <c r="S12">
-        <v>7.816640225312051E-05</v>
+        <v>0.000272217837441386</v>
       </c>
       <c r="T12">
-        <v>7.816640225312051E-05</v>
+        <v>0.0002722178374413861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H13">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I13">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J13">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>9.41743284544645</v>
+        <v>27.09305592094845</v>
       </c>
       <c r="R13">
-        <v>9.41743284544645</v>
+        <v>243.837503288536</v>
       </c>
       <c r="S13">
-        <v>0.002737184613168363</v>
+        <v>0.00736698625026331</v>
       </c>
       <c r="T13">
-        <v>0.002737184613168363</v>
+        <v>0.007366986250263313</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H14">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I14">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J14">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>12.87952799733104</v>
+        <v>36.97863238588711</v>
       </c>
       <c r="R14">
-        <v>12.87952799733104</v>
+        <v>332.807691472984</v>
       </c>
       <c r="S14">
-        <v>0.003743445420607553</v>
+        <v>0.01005501472905959</v>
       </c>
       <c r="T14">
-        <v>0.003743445420607553</v>
+        <v>0.0100550147290596</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H15">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I15">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J15">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>9.410307728980591</v>
+        <v>27.74605652373245</v>
       </c>
       <c r="R15">
-        <v>9.410307728980591</v>
+        <v>249.714508713592</v>
       </c>
       <c r="S15">
-        <v>0.002735113692198981</v>
+        <v>0.007544546377705552</v>
       </c>
       <c r="T15">
-        <v>0.002735113692198981</v>
+        <v>0.007544546377705554</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H16">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I16">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J16">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>0.8011406133375675</v>
+        <v>2.591641666812445</v>
       </c>
       <c r="R16">
-        <v>0.8011406133375675</v>
+        <v>23.32477500131201</v>
       </c>
       <c r="S16">
-        <v>0.0002328521791235452</v>
+        <v>0.0007047041345474178</v>
       </c>
       <c r="T16">
-        <v>0.0002328521791235452</v>
+        <v>0.000704704134547418</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.32773253847127</v>
+        <v>0.07165300000000001</v>
       </c>
       <c r="H17">
-        <v>0.32773253847127</v>
+        <v>0.214959</v>
       </c>
       <c r="I17">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="J17">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>1.703824240313655</v>
+        <v>0.4832805924923333</v>
       </c>
       <c r="R17">
-        <v>1.703824240313655</v>
+        <v>4.349525332431</v>
       </c>
       <c r="S17">
-        <v>0.0004952179187967145</v>
+        <v>0.0001314108489754112</v>
       </c>
       <c r="T17">
-        <v>0.0004952179187967145</v>
+        <v>0.0001314108489754112</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.32773253847127</v>
+        <v>0.07165300000000001</v>
       </c>
       <c r="H18">
-        <v>0.32773253847127</v>
+        <v>0.214959</v>
       </c>
       <c r="I18">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="J18">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>59.66350451985441</v>
+        <v>13.07894263423034</v>
       </c>
       <c r="R18">
-        <v>59.66350451985441</v>
+        <v>117.710483708073</v>
       </c>
       <c r="S18">
-        <v>0.01734124673035612</v>
+        <v>0.003556350041704136</v>
       </c>
       <c r="T18">
-        <v>0.01734124673035612</v>
+        <v>0.003556350041704137</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.32773253847127</v>
+        <v>0.07165300000000001</v>
       </c>
       <c r="H19">
-        <v>0.32773253847127</v>
+        <v>0.214959</v>
       </c>
       <c r="I19">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="J19">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>81.59737260605044</v>
+        <v>17.85112071072633</v>
       </c>
       <c r="R19">
-        <v>81.59737260605044</v>
+        <v>160.660086396537</v>
       </c>
       <c r="S19">
-        <v>0.02371634355537141</v>
+        <v>0.004853972959396889</v>
       </c>
       <c r="T19">
-        <v>0.02371634355537141</v>
+        <v>0.00485397295939689</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.32773253847127</v>
+        <v>0.07165300000000001</v>
       </c>
       <c r="H20">
-        <v>0.32773253847127</v>
+        <v>0.214959</v>
       </c>
       <c r="I20">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="J20">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>59.618363829664</v>
+        <v>13.39417312904234</v>
       </c>
       <c r="R20">
-        <v>59.618363829664</v>
+        <v>120.547558161381</v>
       </c>
       <c r="S20">
-        <v>0.01732812655157229</v>
+        <v>0.00364206568514132</v>
       </c>
       <c r="T20">
-        <v>0.01732812655157229</v>
+        <v>0.00364206568514132</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.07165300000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.214959</v>
+      </c>
+      <c r="I21">
+        <v>0.01252398947085083</v>
+      </c>
+      <c r="J21">
+        <v>0.01252398947085083</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N21">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q21">
+        <v>1.251093002857334</v>
+      </c>
+      <c r="R21">
+        <v>11.259837025716</v>
+      </c>
+      <c r="S21">
+        <v>0.0003401899356330698</v>
+      </c>
+      <c r="T21">
+        <v>0.00034018993563307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.182769</v>
+      </c>
+      <c r="I22">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J22">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N22">
+        <v>20.234209</v>
+      </c>
+      <c r="O22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q22">
+        <v>2.659155016080111</v>
+      </c>
+      <c r="R22">
+        <v>23.932395144721</v>
+      </c>
+      <c r="S22">
+        <v>0.0007230619719658079</v>
+      </c>
+      <c r="T22">
+        <v>0.0007230619719658082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.182769</v>
+      </c>
+      <c r="I23">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J23">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N23">
+        <v>547.595047</v>
+      </c>
+      <c r="O23">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P23">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q23">
+        <v>71.96427179390479</v>
+      </c>
+      <c r="R23">
+        <v>647.678446145143</v>
+      </c>
+      <c r="S23">
+        <v>0.01956810639459785</v>
+      </c>
+      <c r="T23">
+        <v>0.01956810639459785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.182769</v>
+      </c>
+      <c r="I24">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J24">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N24">
+        <v>747.398743</v>
+      </c>
+      <c r="O24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q24">
+        <v>98.22222931770744</v>
+      </c>
+      <c r="R24">
+        <v>884.0000638593669</v>
+      </c>
+      <c r="S24">
+        <v>0.02670801754387068</v>
+      </c>
+      <c r="T24">
+        <v>0.02670801754387069</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.32773253847127</v>
-      </c>
-      <c r="H21">
-        <v>0.32773253847127</v>
-      </c>
-      <c r="I21">
-        <v>0.06035615388105298</v>
-      </c>
-      <c r="J21">
-        <v>0.06035615388105298</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="N21">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="O21">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="P21">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="Q21">
-        <v>5.075571802778159</v>
-      </c>
-      <c r="R21">
-        <v>5.075571802778159</v>
-      </c>
-      <c r="S21">
-        <v>0.001475219124956444</v>
-      </c>
-      <c r="T21">
-        <v>0.001475219124956444</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.182769</v>
+      </c>
+      <c r="I25">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J25">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N25">
+        <v>560.793259</v>
+      </c>
+      <c r="O25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q25">
+        <v>73.69876468379678</v>
+      </c>
+      <c r="R25">
+        <v>663.288882154171</v>
+      </c>
+      <c r="S25">
+        <v>0.02003973961708471</v>
+      </c>
+      <c r="T25">
+        <v>0.02003973961708472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.182769</v>
+      </c>
+      <c r="I26">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J26">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N26">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q26">
+        <v>6.883889578461778</v>
+      </c>
+      <c r="R26">
+        <v>61.95500620615601</v>
+      </c>
+      <c r="S26">
+        <v>0.001871827232071187</v>
+      </c>
+      <c r="T26">
+        <v>0.001871827232071188</v>
       </c>
     </row>
   </sheetData>
